--- a/VOTEDSPENDING.XLSX
+++ b/VOTEDSPENDING.XLSX
@@ -87,7 +87,7 @@
     <t xml:space="preserve">Total Net Cumulative Voted Spending                                 50,053        50,258          205           0.4%              4,340          9.5%             88,288        85,510         2,778          3.2%</t>
   </si>
   <si>
-    <t xml:space="preserve"> Total Gross Cumulative Voted Spending                                 68,130        68,620         490         0.7%              4,973         7.8%             106,195       103,472        2,723         2.6%</t>
+    <t xml:space="preserve">Total Gross Cumulative Voted Spending                                 68,130        68,620         490         0.7%              4,973         7.8%             106,195       103,472        2,723         2.6%</t>
   </si>
 </sst>
 </file>
